--- a/data/cell_classes.xlsx
+++ b/data/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="790">
   <si>
     <t>label</t>
   </si>
@@ -38,220 +38,70 @@
     <t>described by source</t>
   </si>
   <si>
-    <t>human colonic goblet cell</t>
-  </si>
-  <si>
-    <t>colonic goblet cell</t>
-  </si>
-  <si>
-    <t>Q91987032</t>
-  </si>
-  <si>
-    <t>Q5982337</t>
-  </si>
-  <si>
-    <t>human BEST4/OTOP2 cell</t>
-  </si>
-  <si>
-    <t>Q106814916</t>
-  </si>
-  <si>
-    <t>hydra interstitial stem cells</t>
+    <t>beige adipocyte progenitor</t>
+  </si>
+  <si>
+    <t>adipocyte progenitor</t>
+  </si>
+  <si>
+    <t>Q89748873</t>
+  </si>
+  <si>
+    <t>human LYVE1, SELENOP and C1Q, expressing PVM</t>
+  </si>
+  <si>
+    <t>Q109805086</t>
+  </si>
+  <si>
+    <t>Q108923922</t>
+  </si>
+  <si>
+    <t>CD206– CD11c+ WAT inflammatory macrophage</t>
+  </si>
+  <si>
+    <t>macrophage</t>
+  </si>
+  <si>
+    <t>Q654528</t>
+  </si>
+  <si>
+    <t>WAT dendritic cell</t>
+  </si>
+  <si>
+    <t>dendritic cell</t>
+  </si>
+  <si>
+    <t>WAT cDC1</t>
+  </si>
+  <si>
+    <t>WAT DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAT coventional type 2 DCs subset A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">human WAT coventional type 2 DCs subset A </t>
+  </si>
+  <si>
+    <t>WAT conventional type 2 DCs subset B</t>
+  </si>
+  <si>
+    <t>human conventional type 2 DCs subset B</t>
+  </si>
+  <si>
+    <t>WAT ILCP-like cell</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>primitive endoderm cell</t>
   </si>
   <si>
     <t>cell</t>
   </si>
   <si>
-    <t>Q92185170</t>
-  </si>
-  <si>
-    <t>trophectodermal cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell </t>
-  </si>
-  <si>
     <t>Q92932854</t>
-  </si>
-  <si>
-    <t>mouse trophectodermal cell</t>
-  </si>
-  <si>
-    <t>skin fibroblast</t>
-  </si>
-  <si>
-    <t>fibroblast</t>
-  </si>
-  <si>
-    <t>Q37050327</t>
-  </si>
-  <si>
-    <t>human skin fibroblast</t>
-  </si>
-  <si>
-    <t>foreskin fibroblast</t>
-  </si>
-  <si>
-    <t>Q72612609</t>
-  </si>
-  <si>
-    <t>human foreskin fibroblast</t>
-  </si>
-  <si>
-    <t>metallothionein-rich T cell</t>
-  </si>
-  <si>
-    <t>Q376266</t>
-  </si>
-  <si>
-    <t>Q89748873</t>
-  </si>
-  <si>
-    <t>mesothelial adipocyte</t>
-  </si>
-  <si>
-    <t>adipocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human mesothelial adipocyte </t>
-  </si>
-  <si>
-    <t>VAT-derived adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>CFD-expressing VAT-derived adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>MSLN-expressing VAT-derived adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>human VAT-derived adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>human CFD-expressing VAT-derived adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>VPC</t>
-  </si>
-  <si>
-    <t>human MSLN-expressing VAT-derived adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>VPM</t>
-  </si>
-  <si>
-    <t>T2D-associated adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>type 2 diabetes adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>fatty acid handling microvascular endothelial cell</t>
-  </si>
-  <si>
-    <t>endothelial cell</t>
-  </si>
-  <si>
-    <t>beige adipocyte progenitor</t>
-  </si>
-  <si>
-    <t>WAT iNK cell</t>
-  </si>
-  <si>
-    <t>NK cell</t>
-  </si>
-  <si>
-    <t>Q108923922</t>
-  </si>
-  <si>
-    <t>Q654528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAT trNK cell </t>
-  </si>
-  <si>
-    <t>WAT mNK cell</t>
-  </si>
-  <si>
-    <t>WAT ILC</t>
-  </si>
-  <si>
-    <t>Q13418826</t>
-  </si>
-  <si>
-    <t>WAT-resident ILC1</t>
-  </si>
-  <si>
-    <t>WAT-resident  ILC2</t>
-  </si>
-  <si>
-    <t>Q3031422 |  WAT ILC</t>
-  </si>
-  <si>
-    <t>WAT-resident ILC3</t>
-  </si>
-  <si>
-    <t>Q48997382 |  WAT ILC</t>
-  </si>
-  <si>
-    <t>TREM2, CD9 and LPL expressing lipid-associated macrophage</t>
-  </si>
-  <si>
-    <t>macrophage</t>
-  </si>
-  <si>
-    <t>human TREM2, CD9 and LPL expressing lipid-associated macrophage</t>
-  </si>
-  <si>
-    <t>perivascular macrophage</t>
-  </si>
-  <si>
-    <t>PVM</t>
-  </si>
-  <si>
-    <t>LYVE1, SELENOP and C1Q, expressing PVM</t>
-  </si>
-  <si>
-    <t>human LYVE1, SELENOP and C1Q, expressing PVM</t>
-  </si>
-  <si>
-    <t>CD206– CD11c+ WAT inflammatory macrophage</t>
-  </si>
-  <si>
-    <t>WAT dendritic cell</t>
-  </si>
-  <si>
-    <t>dendritic cell</t>
-  </si>
-  <si>
-    <t>WAT cDC1</t>
-  </si>
-  <si>
-    <t>WAT DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAT coventional type 2 DCs subset A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">human WAT coventional type 2 DCs subset A </t>
-  </si>
-  <si>
-    <t>WAT conventional type 2 DCs subset B</t>
-  </si>
-  <si>
-    <t>human conventional type 2 DCs subset B</t>
-  </si>
-  <si>
-    <t>WAT ILCP-like cell</t>
-  </si>
-  <si>
-    <t>immune cell</t>
-  </si>
-  <si>
-    <t>primitive endoderm cell</t>
   </si>
   <si>
     <t>Q66591843</t>
@@ -576,6 +426,9 @@
     <t>hair shaft cell</t>
   </si>
   <si>
+    <t xml:space="preserve">cell </t>
+  </si>
+  <si>
     <t>Q66568673</t>
   </si>
   <si>
@@ -594,6 +447,9 @@
     <t>bone marrow derived endothelial cell</t>
   </si>
   <si>
+    <t>endothelial cell</t>
+  </si>
+  <si>
     <t>Q92303660</t>
   </si>
   <si>
@@ -633,6 +489,9 @@
     <t>ligamentocyte</t>
   </si>
   <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
     <t>ligament cell</t>
   </si>
   <si>
@@ -678,6 +537,9 @@
     <t>tumor-specific CD8+ T cell</t>
   </si>
   <si>
+    <t>Q376266</t>
+  </si>
+  <si>
     <t>Q57814130</t>
   </si>
   <si>
@@ -690,6 +552,9 @@
     <t>KLRG1+ NK cell</t>
   </si>
   <si>
+    <t>NK cell</t>
+  </si>
+  <si>
     <t>monocyte/macrophage</t>
   </si>
   <si>
@@ -847,6 +712,135 @@
   </si>
   <si>
     <t>deep-layer excitatory neuron</t>
+  </si>
+  <si>
+    <t>CCR7-positive myeloid dendritic cell</t>
+  </si>
+  <si>
+    <t>Q109755007</t>
+  </si>
+  <si>
+    <t>colorectal cancer cell</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>CMS1 colorectal cancer cell</t>
+  </si>
+  <si>
+    <t>CMS2 colorectal cancer cell</t>
+  </si>
+  <si>
+    <t>CMS3 colorectal cancer cell</t>
+  </si>
+  <si>
+    <t>CMS4 colorectal cancer cell</t>
+  </si>
+  <si>
+    <t>CXCL9-positive macrophage</t>
+  </si>
+  <si>
+    <t>enteric glial cell</t>
+  </si>
+  <si>
+    <t>glial cell</t>
+  </si>
+  <si>
+    <t>exhausted-like CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>CD4 T cell</t>
+  </si>
+  <si>
+    <t>exhausted-like CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>IL7R-max CD4-positive, alpha-beta cytotoxic T cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>immature enterocyte</t>
+  </si>
+  <si>
+    <t>enterocyte</t>
+  </si>
+  <si>
+    <t>goblet cell</t>
+  </si>
+  <si>
+    <t>MSR1-positive macrophage</t>
+  </si>
+  <si>
+    <t>natural killer or T cell</t>
+  </si>
+  <si>
+    <t>newly formed oligodendrocyte</t>
+  </si>
+  <si>
+    <t>oligodendrocyte</t>
+  </si>
+  <si>
+    <t>proliferating B cell</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>proliferating CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>proliferating CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>proliferating monocyte</t>
+  </si>
+  <si>
+    <t>proliferating neuron</t>
+  </si>
+  <si>
+    <t>proliferating T cell</t>
+  </si>
+  <si>
+    <t>proliferating transit amplifying cell</t>
+  </si>
+  <si>
+    <t>SLC17A6_SLC17A7-positive neuron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC17A6-positive neuron	</t>
+  </si>
+  <si>
+    <t>SLC17A7-positive neuron</t>
+  </si>
+  <si>
+    <t>SLC17A8-positive neuron</t>
+  </si>
+  <si>
+    <t>exhausted B cell</t>
+  </si>
+  <si>
+    <t>proliferating myeloid leukocyte</t>
+  </si>
+  <si>
+    <t>leukocyte</t>
+  </si>
+  <si>
+    <t>proliferating myeloid dendritic cell</t>
+  </si>
+  <si>
+    <t>proliferating epithelial fate stem cell</t>
+  </si>
+  <si>
+    <t>proliferating enterocyte progenitor</t>
+  </si>
+  <si>
+    <t>proliferating hematopoietic cell</t>
+  </si>
+  <si>
+    <t>secretory progenitor</t>
   </si>
   <si>
     <t>cell class</t>
@@ -2322,11 +2316,17 @@
     <t>"The known EP and CLA marker transcription factor Nr4a2"</t>
   </si>
   <si>
+    <t xml:space="preserve">human mesothelial adipocyte </t>
+  </si>
+  <si>
     <t>UPK3B and WT1</t>
   </si>
   <si>
     <t>"mesothelial adipocyte markers UPK3B
 and WT1"</t>
+  </si>
+  <si>
+    <t>human CFD-expressing VAT-derived adipocyte progenitor</t>
   </si>
   <si>
     <t>CFD</t>
@@ -2337,6 +2337,9 @@
 separately"</t>
   </si>
   <si>
+    <t>human MSLN-expressing VAT-derived adipocyte progenitor</t>
+  </si>
+  <si>
     <t>MSLN</t>
   </si>
   <si>
@@ -2347,6 +2350,9 @@
   <si>
     <t>"VPM progenitor cells also expressed the mesothelial adipocyte markers UPK3B
 and WT1"</t>
+  </si>
+  <si>
+    <t>human TREM2, CD9 and LPL expressing lipid-associated macrophage</t>
   </si>
   <si>
     <t xml:space="preserve">TREM2, CD9 and LPL </t>
@@ -2410,7 +2416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2428,11 +2434,6 @@
       <sz val="11.0"/>
       <color rgb="FFCE9178"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF72777D"/>
@@ -2472,9 +2473,28 @@
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
     </font>
-    <font/>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF24292F"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF24292F"/>
+      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2581,14 +2601,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1E1E1E"/>
-        <bgColor rgb="FF1E1E1E"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF1E1E1E"/>
+        <bgColor rgb="FF1E1E1E"/>
       </patternFill>
     </fill>
   </fills>
@@ -2598,7 +2618,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2606,68 +2626,72 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2675,10 +2699,10 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2687,35 +2711,44 @@
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2991,10 +3024,10 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3002,9 +3035,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3025,14 +3056,14 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3057,17 +3088,19 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3089,17 +3122,19 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -3121,17 +3156,21 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3153,17 +3192,19 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3185,17 +3226,19 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3217,17 +3260,19 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3249,17 +3294,19 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3281,17 +3328,19 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3313,17 +3362,19 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3345,16 +3396,18 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3377,14 +3430,14 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3409,14 +3462,14 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3441,14 +3494,14 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3473,18 +3526,20 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3505,19 +3560,19 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3539,18 +3594,16 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3573,18 +3626,16 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3608,13 +3659,13 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3639,14 +3690,14 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>35</v>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3674,16 +3725,14 @@
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3705,19 +3754,19 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
+      <c r="A24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3739,19 +3788,19 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3774,18 +3823,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3807,17 +3854,21 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
+      <c r="A27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3839,18 +3890,20 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>58</v>
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3873,19 +3926,17 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3907,17 +3958,19 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
+      <c r="A30" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3939,17 +3992,19 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3971,18 +4026,16 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
+      <c r="A32" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4005,17 +4058,19 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
+      <c r="A33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4037,14 +4092,14 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
+      <c r="A34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4069,19 +4124,17 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
+      <c r="A35" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -4103,18 +4156,18 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>70</v>
+      <c r="A36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
-        <v>51</v>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4137,21 +4190,17 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
+      <c r="A37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4173,19 +4222,19 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4207,19 +4256,17 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -4241,19 +4288,19 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>69</v>
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4275,19 +4322,19 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>76</v>
+      <c r="A41" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4309,19 +4356,17 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
+      <c r="A42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4343,19 +4388,17 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
+      <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -4377,18 +4420,16 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>82</v>
+      <c r="A44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>84</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4411,11 +4452,11 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
+      <c r="A45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>87</v>
@@ -4443,11 +4484,11 @@
       <c r="X45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>86</v>
+      <c r="A46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>87</v>
@@ -4475,11 +4516,11 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
+      <c r="A47" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>87</v>
@@ -4507,20 +4548,20 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>86</v>
+      <c r="A48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="3"/>
+      <c r="E48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -4541,19 +4582,17 @@
       <c r="X48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>86</v>
+      <c r="A49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4575,16 +4614,18 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>86</v>
+      <c r="A50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4607,14 +4648,14 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>95</v>
+      <c r="A51" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4639,14 +4680,14 @@
       <c r="X51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>94</v>
+      <c r="A52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4671,14 +4712,14 @@
       <c r="X52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>95</v>
+      <c r="A53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4703,17 +4744,21 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>99</v>
+      <c r="A54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4735,18 +4780,16 @@
       <c r="X54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>15</v>
+      <c r="A55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4769,18 +4812,16 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>103</v>
+      <c r="A56" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4803,16 +4844,16 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>106</v>
+      <c r="A57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4835,21 +4876,17 @@
       <c r="X57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>109</v>
+      <c r="A58" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -4871,21 +4908,17 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>78</v>
+      <c r="A59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -4907,16 +4940,18 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>78</v>
+      <c r="A60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4939,18 +4974,17 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3" t="s">
-        <v>115</v>
+      <c r="E61" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -4973,19 +5007,19 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>78</v>
+      <c r="A62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -5007,17 +5041,19 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>78</v>
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -5039,19 +5075,17 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>15</v>
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -5073,17 +5107,19 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>122</v>
+      <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -5105,17 +5141,19 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>122</v>
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5137,18 +5175,18 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>15</v>
+      <c r="A67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="1" t="s">
-        <v>128</v>
+      <c r="E67" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -5171,17 +5209,19 @@
       <c r="X67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>130</v>
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -5203,19 +5243,19 @@
       <c r="X68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>131</v>
+      <c r="A69" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -5237,17 +5277,19 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -5269,17 +5311,17 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>136</v>
+      <c r="A71" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -5303,17 +5345,17 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>135</v>
+      <c r="A72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -5337,16 +5379,18 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>136</v>
+      <c r="A73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -5369,14 +5413,14 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>141</v>
+      <c r="A74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5401,16 +5445,18 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -5433,16 +5479,18 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -5465,16 +5513,18 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>147</v>
+      <c r="A77" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -5497,14 +5547,14 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>147</v>
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5529,19 +5579,17 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>15</v>
+      <c r="A79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -5564,15 +5612,17 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5595,17 +5645,17 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>153</v>
+      <c r="A81" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -5629,16 +5679,18 @@
       <c r="X81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>15</v>
+      <c r="A82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5661,16 +5713,18 @@
       <c r="X82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>106</v>
+      <c r="A83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -5693,16 +5747,18 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D84" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5725,21 +5781,17 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>99</v>
+      <c r="A85" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -5761,14 +5813,14 @@
       <c r="X85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>159</v>
+      <c r="A86" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5793,14 +5845,14 @@
       <c r="X86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>99</v>
+      <c r="A87" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5825,14 +5877,14 @@
       <c r="X87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>166</v>
+      <c r="A88" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5857,14 +5909,14 @@
       <c r="X88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>15</v>
+      <c r="A89" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5889,14 +5941,14 @@
       <c r="X89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5921,18 +5973,16 @@
       <c r="X90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>15</v>
+      <c r="A91" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -5956,17 +6006,16 @@
     </row>
     <row r="92">
       <c r="A92" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>15</v>
+        <v>184</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -5988,18 +6037,16 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>99</v>
+      <c r="A93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D93" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6022,19 +6069,19 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>177</v>
+      <c r="A94" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -6056,16 +6103,18 @@
       <c r="X94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>176</v>
+      <c r="A95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -6088,19 +6137,17 @@
       <c r="X95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>15</v>
+      <c r="A96" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="6" t="s">
-        <v>183</v>
-      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -6122,19 +6169,17 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>15</v>
+      <c r="A97" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -6156,19 +6201,17 @@
       <c r="X97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>18</v>
+      <c r="A98" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="6" t="s">
-        <v>187</v>
-      </c>
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -6190,18 +6233,18 @@
       <c r="X98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>15</v>
+      <c r="A99" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="3" t="s">
-        <v>183</v>
+      <c r="E99" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -6225,17 +6268,17 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>15</v>
+        <v>201</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="3" t="s">
-        <v>183</v>
+      <c r="E100" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6258,18 +6301,20 @@
       <c r="X100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>191</v>
+      <c r="A101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6292,18 +6337,16 @@
       <c r="X101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>46</v>
+      <c r="A102" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -6327,17 +6370,15 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>15</v>
+        <v>206</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6360,18 +6401,16 @@
       <c r="X103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>198</v>
+      <c r="A104" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -6395,13 +6434,13 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>99</v>
+        <v>208</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6426,18 +6465,16 @@
       <c r="X105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>201</v>
+      <c r="A106" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -6460,18 +6497,16 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -6494,18 +6529,16 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>22</v>
+      <c r="A108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>206</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6528,16 +6561,18 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>207</v>
+      <c r="A109" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D109" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6561,13 +6596,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>22</v>
+        <v>218</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6593,16 +6628,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -6627,16 +6662,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -6660,17 +6695,17 @@
       <c r="X112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>22</v>
+      <c r="A113" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -6694,19 +6729,17 @@
       <c r="X113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6728,19 +6761,19 @@
       <c r="X114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>22</v>
+      <c r="A115" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -6762,14 +6795,14 @@
       <c r="X115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="15" t="s">
-        <v>220</v>
+      <c r="A116" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6794,14 +6827,14 @@
       <c r="X116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>222</v>
+      <c r="A117" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6826,14 +6859,14 @@
       <c r="X117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>49</v>
+      <c r="A118" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6859,13 +6892,13 @@
     </row>
     <row r="119">
       <c r="A119" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>15</v>
+        <v>233</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6890,14 +6923,14 @@
       <c r="X119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>225</v>
+      <c r="A120" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6922,14 +6955,14 @@
       <c r="X120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>62</v>
+      <c r="A121" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6955,13 +6988,13 @@
     </row>
     <row r="122">
       <c r="A122" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>227</v>
+        <v>238</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6986,14 +7019,14 @@
       <c r="X122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>230</v>
+      <c r="A123" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -7018,14 +7051,14 @@
       <c r="X123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>232</v>
+      <c r="A124" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7051,17 +7084,15 @@
     </row>
     <row r="125">
       <c r="A125" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>62</v>
+        <v>241</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D125" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -7084,19 +7115,19 @@
       <c r="X125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>236</v>
+      <c r="A126" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E126" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -7118,14 +7149,14 @@
       <c r="X126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>235</v>
+      <c r="A127" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7150,14 +7181,14 @@
       <c r="X127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>241</v>
+      <c r="A128" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -7182,14 +7213,14 @@
       <c r="X128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>99</v>
+      <c r="A129" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -7214,19 +7245,17 @@
       <c r="X129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>245</v>
+      <c r="A130" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -7248,19 +7277,17 @@
       <c r="X130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>244</v>
+      <c r="A131" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -7282,21 +7309,17 @@
       <c r="X131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>15</v>
+      <c r="A132" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>179</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -7318,14 +7341,14 @@
       <c r="X132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>22</v>
+      <c r="A133" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -7350,14 +7373,14 @@
       <c r="X133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>250</v>
+      <c r="A134" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -7382,14 +7405,14 @@
       <c r="X134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>251</v>
+      <c r="A135" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7414,14 +7437,14 @@
       <c r="X135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>254</v>
+      <c r="A136" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7446,14 +7469,14 @@
       <c r="X136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>22</v>
+      <c r="A137" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -7479,13 +7502,13 @@
     </row>
     <row r="138">
       <c r="A138" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>22</v>
+        <v>259</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7510,14 +7533,14 @@
       <c r="X138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>258</v>
+      <c r="A139" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -7542,18 +7565,16 @@
       <c r="X139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>260</v>
+      <c r="A140" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>262</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -7576,14 +7597,14 @@
       <c r="X140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>264</v>
+      <c r="A141" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7608,18 +7629,16 @@
       <c r="X141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>266</v>
+      <c r="A142" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>267</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -7642,18 +7661,16 @@
       <c r="X142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>266</v>
+      <c r="A143" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>269</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -7676,18 +7693,16 @@
       <c r="X143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>266</v>
+      <c r="A144" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>271</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -7710,17 +7725,17 @@
       <c r="X144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B145" s="2"/>
+      <c r="A145" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C145" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D145" s="2"/>
-      <c r="E145" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -7742,19 +7757,17 @@
       <c r="X145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>106</v>
+      <c r="A146" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -7776,14 +7789,14 @@
       <c r="X146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>106</v>
+      <c r="A147" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -7808,14 +7821,14 @@
       <c r="X147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>106</v>
+      <c r="A148" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -7840,14 +7853,14 @@
       <c r="X148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>106</v>
+      <c r="A149" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -7872,9 +7885,15 @@
       <c r="X149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -7898,9 +7917,15 @@
       <c r="X150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -7924,9 +7949,15 @@
       <c r="X151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -7950,9 +7981,15 @@
       <c r="X152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="A153" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -7976,7 +8013,7 @@
       <c r="X153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2"/>
+      <c r="A154" s="22"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -14556,7 +14593,7 @@
     <row r="407">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
+      <c r="C407" s="23"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
@@ -14579,786 +14616,6 @@
       <c r="W407" s="2"/>
       <c r="X407" s="2"/>
     </row>
-    <row r="408">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="2"/>
-      <c r="F408" s="2"/>
-      <c r="G408" s="2"/>
-      <c r="H408" s="2"/>
-      <c r="I408" s="2"/>
-      <c r="J408" s="2"/>
-      <c r="K408" s="2"/>
-      <c r="L408" s="2"/>
-      <c r="M408" s="2"/>
-      <c r="N408" s="2"/>
-      <c r="O408" s="2"/>
-      <c r="P408" s="2"/>
-      <c r="Q408" s="2"/>
-      <c r="R408" s="2"/>
-      <c r="S408" s="2"/>
-      <c r="T408" s="2"/>
-      <c r="U408" s="2"/>
-      <c r="V408" s="2"/>
-      <c r="W408" s="2"/>
-      <c r="X408" s="2"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="J409" s="2"/>
-      <c r="K409" s="2"/>
-      <c r="L409" s="2"/>
-      <c r="M409" s="2"/>
-      <c r="N409" s="2"/>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" s="2"/>
-      <c r="R409" s="2"/>
-      <c r="S409" s="2"/>
-      <c r="T409" s="2"/>
-      <c r="U409" s="2"/>
-      <c r="V409" s="2"/>
-      <c r="W409" s="2"/>
-      <c r="X409" s="2"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-      <c r="J410" s="2"/>
-      <c r="K410" s="2"/>
-      <c r="L410" s="2"/>
-      <c r="M410" s="2"/>
-      <c r="N410" s="2"/>
-      <c r="O410" s="2"/>
-      <c r="P410" s="2"/>
-      <c r="Q410" s="2"/>
-      <c r="R410" s="2"/>
-      <c r="S410" s="2"/>
-      <c r="T410" s="2"/>
-      <c r="U410" s="2"/>
-      <c r="V410" s="2"/>
-      <c r="W410" s="2"/>
-      <c r="X410" s="2"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2"/>
-      <c r="J411" s="2"/>
-      <c r="K411" s="2"/>
-      <c r="L411" s="2"/>
-      <c r="M411" s="2"/>
-      <c r="N411" s="2"/>
-      <c r="O411" s="2"/>
-      <c r="P411" s="2"/>
-      <c r="Q411" s="2"/>
-      <c r="R411" s="2"/>
-      <c r="S411" s="2"/>
-      <c r="T411" s="2"/>
-      <c r="U411" s="2"/>
-      <c r="V411" s="2"/>
-      <c r="W411" s="2"/>
-      <c r="X411" s="2"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
-      <c r="H412" s="2"/>
-      <c r="I412" s="2"/>
-      <c r="J412" s="2"/>
-      <c r="K412" s="2"/>
-      <c r="L412" s="2"/>
-      <c r="M412" s="2"/>
-      <c r="N412" s="2"/>
-      <c r="O412" s="2"/>
-      <c r="P412" s="2"/>
-      <c r="Q412" s="2"/>
-      <c r="R412" s="2"/>
-      <c r="S412" s="2"/>
-      <c r="T412" s="2"/>
-      <c r="U412" s="2"/>
-      <c r="V412" s="2"/>
-      <c r="W412" s="2"/>
-      <c r="X412" s="2"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-      <c r="J413" s="2"/>
-      <c r="K413" s="2"/>
-      <c r="L413" s="2"/>
-      <c r="M413" s="2"/>
-      <c r="N413" s="2"/>
-      <c r="O413" s="2"/>
-      <c r="P413" s="2"/>
-      <c r="Q413" s="2"/>
-      <c r="R413" s="2"/>
-      <c r="S413" s="2"/>
-      <c r="T413" s="2"/>
-      <c r="U413" s="2"/>
-      <c r="V413" s="2"/>
-      <c r="W413" s="2"/>
-      <c r="X413" s="2"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
-      <c r="F414" s="2"/>
-      <c r="G414" s="2"/>
-      <c r="H414" s="2"/>
-      <c r="I414" s="2"/>
-      <c r="J414" s="2"/>
-      <c r="K414" s="2"/>
-      <c r="L414" s="2"/>
-      <c r="M414" s="2"/>
-      <c r="N414" s="2"/>
-      <c r="O414" s="2"/>
-      <c r="P414" s="2"/>
-      <c r="Q414" s="2"/>
-      <c r="R414" s="2"/>
-      <c r="S414" s="2"/>
-      <c r="T414" s="2"/>
-      <c r="U414" s="2"/>
-      <c r="V414" s="2"/>
-      <c r="W414" s="2"/>
-      <c r="X414" s="2"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2"/>
-      <c r="K415" s="2"/>
-      <c r="L415" s="2"/>
-      <c r="M415" s="2"/>
-      <c r="N415" s="2"/>
-      <c r="O415" s="2"/>
-      <c r="P415" s="2"/>
-      <c r="Q415" s="2"/>
-      <c r="R415" s="2"/>
-      <c r="S415" s="2"/>
-      <c r="T415" s="2"/>
-      <c r="U415" s="2"/>
-      <c r="V415" s="2"/>
-      <c r="W415" s="2"/>
-      <c r="X415" s="2"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2"/>
-      <c r="K416" s="2"/>
-      <c r="L416" s="2"/>
-      <c r="M416" s="2"/>
-      <c r="N416" s="2"/>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
-      <c r="Q416" s="2"/>
-      <c r="R416" s="2"/>
-      <c r="S416" s="2"/>
-      <c r="T416" s="2"/>
-      <c r="U416" s="2"/>
-      <c r="V416" s="2"/>
-      <c r="W416" s="2"/>
-      <c r="X416" s="2"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="2"/>
-      <c r="J417" s="2"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
-      <c r="M417" s="2"/>
-      <c r="N417" s="2"/>
-      <c r="O417" s="2"/>
-      <c r="P417" s="2"/>
-      <c r="Q417" s="2"/>
-      <c r="R417" s="2"/>
-      <c r="S417" s="2"/>
-      <c r="T417" s="2"/>
-      <c r="U417" s="2"/>
-      <c r="V417" s="2"/>
-      <c r="W417" s="2"/>
-      <c r="X417" s="2"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2"/>
-      <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
-      <c r="M418" s="2"/>
-      <c r="N418" s="2"/>
-      <c r="O418" s="2"/>
-      <c r="P418" s="2"/>
-      <c r="Q418" s="2"/>
-      <c r="R418" s="2"/>
-      <c r="S418" s="2"/>
-      <c r="T418" s="2"/>
-      <c r="U418" s="2"/>
-      <c r="V418" s="2"/>
-      <c r="W418" s="2"/>
-      <c r="X418" s="2"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
-      <c r="M419" s="2"/>
-      <c r="N419" s="2"/>
-      <c r="O419" s="2"/>
-      <c r="P419" s="2"/>
-      <c r="Q419" s="2"/>
-      <c r="R419" s="2"/>
-      <c r="S419" s="2"/>
-      <c r="T419" s="2"/>
-      <c r="U419" s="2"/>
-      <c r="V419" s="2"/>
-      <c r="W419" s="2"/>
-      <c r="X419" s="2"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="2"/>
-      <c r="J420" s="2"/>
-      <c r="K420" s="2"/>
-      <c r="L420" s="2"/>
-      <c r="M420" s="2"/>
-      <c r="N420" s="2"/>
-      <c r="O420" s="2"/>
-      <c r="P420" s="2"/>
-      <c r="Q420" s="2"/>
-      <c r="R420" s="2"/>
-      <c r="S420" s="2"/>
-      <c r="T420" s="2"/>
-      <c r="U420" s="2"/>
-      <c r="V420" s="2"/>
-      <c r="W420" s="2"/>
-      <c r="X420" s="2"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-      <c r="J421" s="2"/>
-      <c r="K421" s="2"/>
-      <c r="L421" s="2"/>
-      <c r="M421" s="2"/>
-      <c r="N421" s="2"/>
-      <c r="O421" s="2"/>
-      <c r="P421" s="2"/>
-      <c r="Q421" s="2"/>
-      <c r="R421" s="2"/>
-      <c r="S421" s="2"/>
-      <c r="T421" s="2"/>
-      <c r="U421" s="2"/>
-      <c r="V421" s="2"/>
-      <c r="W421" s="2"/>
-      <c r="X421" s="2"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2"/>
-      <c r="K422" s="2"/>
-      <c r="L422" s="2"/>
-      <c r="M422" s="2"/>
-      <c r="N422" s="2"/>
-      <c r="O422" s="2"/>
-      <c r="P422" s="2"/>
-      <c r="Q422" s="2"/>
-      <c r="R422" s="2"/>
-      <c r="S422" s="2"/>
-      <c r="T422" s="2"/>
-      <c r="U422" s="2"/>
-      <c r="V422" s="2"/>
-      <c r="W422" s="2"/>
-      <c r="X422" s="2"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2"/>
-      <c r="K423" s="2"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="2"/>
-      <c r="N423" s="2"/>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
-      <c r="Q423" s="2"/>
-      <c r="R423" s="2"/>
-      <c r="S423" s="2"/>
-      <c r="T423" s="2"/>
-      <c r="U423" s="2"/>
-      <c r="V423" s="2"/>
-      <c r="W423" s="2"/>
-      <c r="X423" s="2"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2"/>
-      <c r="K424" s="2"/>
-      <c r="L424" s="2"/>
-      <c r="M424" s="2"/>
-      <c r="N424" s="2"/>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2"/>
-      <c r="V424" s="2"/>
-      <c r="W424" s="2"/>
-      <c r="X424" s="2"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-      <c r="K425" s="2"/>
-      <c r="L425" s="2"/>
-      <c r="M425" s="2"/>
-      <c r="N425" s="2"/>
-      <c r="O425" s="2"/>
-      <c r="P425" s="2"/>
-      <c r="Q425" s="2"/>
-      <c r="R425" s="2"/>
-      <c r="S425" s="2"/>
-      <c r="T425" s="2"/>
-      <c r="U425" s="2"/>
-      <c r="V425" s="2"/>
-      <c r="W425" s="2"/>
-      <c r="X425" s="2"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
-      <c r="K426" s="2"/>
-      <c r="L426" s="2"/>
-      <c r="M426" s="2"/>
-      <c r="N426" s="2"/>
-      <c r="O426" s="2"/>
-      <c r="P426" s="2"/>
-      <c r="Q426" s="2"/>
-      <c r="R426" s="2"/>
-      <c r="S426" s="2"/>
-      <c r="T426" s="2"/>
-      <c r="U426" s="2"/>
-      <c r="V426" s="2"/>
-      <c r="W426" s="2"/>
-      <c r="X426" s="2"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-      <c r="J427" s="2"/>
-      <c r="K427" s="2"/>
-      <c r="L427" s="2"/>
-      <c r="M427" s="2"/>
-      <c r="N427" s="2"/>
-      <c r="O427" s="2"/>
-      <c r="P427" s="2"/>
-      <c r="Q427" s="2"/>
-      <c r="R427" s="2"/>
-      <c r="S427" s="2"/>
-      <c r="T427" s="2"/>
-      <c r="U427" s="2"/>
-      <c r="V427" s="2"/>
-      <c r="W427" s="2"/>
-      <c r="X427" s="2"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-      <c r="J428" s="2"/>
-      <c r="K428" s="2"/>
-      <c r="L428" s="2"/>
-      <c r="M428" s="2"/>
-      <c r="N428" s="2"/>
-      <c r="O428" s="2"/>
-      <c r="P428" s="2"/>
-      <c r="Q428" s="2"/>
-      <c r="R428" s="2"/>
-      <c r="S428" s="2"/>
-      <c r="T428" s="2"/>
-      <c r="U428" s="2"/>
-      <c r="V428" s="2"/>
-      <c r="W428" s="2"/>
-      <c r="X428" s="2"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-      <c r="J429" s="2"/>
-      <c r="K429" s="2"/>
-      <c r="L429" s="2"/>
-      <c r="M429" s="2"/>
-      <c r="N429" s="2"/>
-      <c r="O429" s="2"/>
-      <c r="P429" s="2"/>
-      <c r="Q429" s="2"/>
-      <c r="R429" s="2"/>
-      <c r="S429" s="2"/>
-      <c r="T429" s="2"/>
-      <c r="U429" s="2"/>
-      <c r="V429" s="2"/>
-      <c r="W429" s="2"/>
-      <c r="X429" s="2"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="2"/>
-      <c r="J430" s="2"/>
-      <c r="K430" s="2"/>
-      <c r="L430" s="2"/>
-      <c r="M430" s="2"/>
-      <c r="N430" s="2"/>
-      <c r="O430" s="2"/>
-      <c r="P430" s="2"/>
-      <c r="Q430" s="2"/>
-      <c r="R430" s="2"/>
-      <c r="S430" s="2"/>
-      <c r="T430" s="2"/>
-      <c r="U430" s="2"/>
-      <c r="V430" s="2"/>
-      <c r="W430" s="2"/>
-      <c r="X430" s="2"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
-      <c r="H431" s="2"/>
-      <c r="I431" s="2"/>
-      <c r="J431" s="2"/>
-      <c r="K431" s="2"/>
-      <c r="L431" s="2"/>
-      <c r="M431" s="2"/>
-      <c r="N431" s="2"/>
-      <c r="O431" s="2"/>
-      <c r="P431" s="2"/>
-      <c r="Q431" s="2"/>
-      <c r="R431" s="2"/>
-      <c r="S431" s="2"/>
-      <c r="T431" s="2"/>
-      <c r="U431" s="2"/>
-      <c r="V431" s="2"/>
-      <c r="W431" s="2"/>
-      <c r="X431" s="2"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-      <c r="H432" s="2"/>
-      <c r="I432" s="2"/>
-      <c r="J432" s="2"/>
-      <c r="K432" s="2"/>
-      <c r="L432" s="2"/>
-      <c r="M432" s="2"/>
-      <c r="N432" s="2"/>
-      <c r="O432" s="2"/>
-      <c r="P432" s="2"/>
-      <c r="Q432" s="2"/>
-      <c r="R432" s="2"/>
-      <c r="S432" s="2"/>
-      <c r="T432" s="2"/>
-      <c r="U432" s="2"/>
-      <c r="V432" s="2"/>
-      <c r="W432" s="2"/>
-      <c r="X432" s="2"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-      <c r="H433" s="2"/>
-      <c r="I433" s="2"/>
-      <c r="J433" s="2"/>
-      <c r="K433" s="2"/>
-      <c r="L433" s="2"/>
-      <c r="M433" s="2"/>
-      <c r="N433" s="2"/>
-      <c r="O433" s="2"/>
-      <c r="P433" s="2"/>
-      <c r="Q433" s="2"/>
-      <c r="R433" s="2"/>
-      <c r="S433" s="2"/>
-      <c r="T433" s="2"/>
-      <c r="U433" s="2"/>
-      <c r="V433" s="2"/>
-      <c r="W433" s="2"/>
-      <c r="X433" s="2"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-      <c r="H434" s="2"/>
-      <c r="I434" s="2"/>
-      <c r="J434" s="2"/>
-      <c r="K434" s="2"/>
-      <c r="L434" s="2"/>
-      <c r="M434" s="2"/>
-      <c r="N434" s="2"/>
-      <c r="O434" s="2"/>
-      <c r="P434" s="2"/>
-      <c r="Q434" s="2"/>
-      <c r="R434" s="2"/>
-      <c r="S434" s="2"/>
-      <c r="T434" s="2"/>
-      <c r="U434" s="2"/>
-      <c r="V434" s="2"/>
-      <c r="W434" s="2"/>
-      <c r="X434" s="2"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2"/>
-      <c r="K435" s="2"/>
-      <c r="L435" s="2"/>
-      <c r="M435" s="2"/>
-      <c r="N435" s="2"/>
-      <c r="O435" s="2"/>
-      <c r="P435" s="2"/>
-      <c r="Q435" s="2"/>
-      <c r="R435" s="2"/>
-      <c r="S435" s="2"/>
-      <c r="T435" s="2"/>
-      <c r="U435" s="2"/>
-      <c r="V435" s="2"/>
-      <c r="W435" s="2"/>
-      <c r="X435" s="2"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2"/>
-      <c r="K436" s="2"/>
-      <c r="L436" s="2"/>
-      <c r="M436" s="2"/>
-      <c r="N436" s="2"/>
-      <c r="O436" s="2"/>
-      <c r="P436" s="2"/>
-      <c r="Q436" s="2"/>
-      <c r="R436" s="2"/>
-      <c r="S436" s="2"/>
-      <c r="T436" s="2"/>
-      <c r="U436" s="2"/>
-      <c r="V436" s="2"/>
-      <c r="W436" s="2"/>
-      <c r="X436" s="2"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="18"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
-      <c r="H437" s="2"/>
-      <c r="I437" s="2"/>
-      <c r="J437" s="2"/>
-      <c r="K437" s="2"/>
-      <c r="L437" s="2"/>
-      <c r="M437" s="2"/>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-      <c r="P437" s="2"/>
-      <c r="Q437" s="2"/>
-      <c r="R437" s="2"/>
-      <c r="S437" s="2"/>
-      <c r="T437" s="2"/>
-      <c r="U437" s="2"/>
-      <c r="V437" s="2"/>
-      <c r="W437" s="2"/>
-      <c r="X437" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15379,2367 +14636,2367 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="D3" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="D6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="27" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="C7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B7" s="22" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="27" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="C8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B16" s="26" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="s">
+      <c r="C16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="D16" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B19" s="26" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="s">
+      <c r="C19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="D21" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="C24" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="29" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="D26" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>367</v>
+        <v>370</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>365</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="D35" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="27" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="22" t="s">
+      <c r="C36" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C37" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="D39" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="30" t="s">
+      <c r="C40" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C40" s="27" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="D42" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C42" s="27" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="22" t="s">
+      <c r="C43" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="27" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="22" t="s">
+      <c r="C44" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B45" s="27" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="22" t="s">
+      <c r="C45" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B45" s="22" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B46" s="27" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="22" t="s">
+      <c r="C46" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="D46" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C49" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="D49" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B50" s="22" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C51" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="B51" s="32" t="s">
+    <row r="52">
+      <c r="A52" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="B52" s="27" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="33" t="s">
+      <c r="C52" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>437</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="D55" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="B59" s="37" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="33" t="s">
+      <c r="C59" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B59" s="32" t="s">
+    </row>
+    <row r="60">
+      <c r="A60" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="C59" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B60" s="37" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="33" t="s">
+      <c r="C60" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>456</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="D61" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>465</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>465</v>
+        <v>459</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B65" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="B66" s="27" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="22" t="s">
+      <c r="C66" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="33" t="s">
-        <v>481</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="D70" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B71" s="29" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="C71" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="B72" s="27" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="22" t="s">
+      <c r="C72" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="D72" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C72" s="27" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="C73" s="32" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="C73" s="27" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="C74" s="32" t="s">
         <v>495</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="D74" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C74" s="27" t="s">
+    </row>
+    <row r="75">
+      <c r="A75" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="B75" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="33" t="s">
+      <c r="C75" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C75" s="27" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="33" t="s">
+      <c r="C76" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C76" s="1" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="B77" s="27" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="34" t="s">
+      <c r="C77" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="22" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="C78" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>514</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C80" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>527</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="D83" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="C84" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="D84" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="C85" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="D85" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C85" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="B86" s="27" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="C86" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="D86" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C86" s="27" t="s">
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="C87" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="88">
+      <c r="A88" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C87" s="27" t="s">
-        <v>539</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="B88" s="37" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="C88" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="B88" s="32" t="s">
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="B89" s="37" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="C89" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="D89" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>548</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>548</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="B92" s="27" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="C92" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="D92" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="D93" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C93" s="27" t="s">
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="B94" s="40" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="D94" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="C94" s="1" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="B95" s="27" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="C95" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B95" s="22" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C95" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="B96" s="27" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="C96" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="D96" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C96" s="27" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="B97" s="27" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="C97" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="D97" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C97" s="27" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="B98" s="27" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="36" t="s">
+      <c r="C98" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="D98" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C98" s="27" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="B99" s="27" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="36" t="s">
+      <c r="C99" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B99" s="22" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="C99" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="B100" s="27" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="36" t="s">
+      <c r="C100" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C101" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C101" s="27" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="C102" s="32" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="27" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="C103" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="D103" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C103" s="27" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="B104" s="37" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="C104" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B104" s="32" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="C104" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="B105" s="27" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="22" t="s">
+      <c r="C105" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B105" s="22" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C105" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="B106" s="42" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="C106" s="32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B107" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="C106" s="27" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="C107" s="32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B108" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C107" s="27" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="22" t="s">
+      <c r="C108" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C108" s="27" t="s">
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="C109" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="43" t="s">
         <v>614</v>
       </c>
-      <c r="C109" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="38" t="s">
+      <c r="C110" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C110" s="27" t="s">
+    </row>
+    <row r="111">
+      <c r="A111" s="43" t="s">
         <v>618</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="38" t="s">
+      <c r="C111" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C111" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="B112" s="44" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="C112" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="B112" s="39" t="s">
+      <c r="D112" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C112" s="27" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="C113" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="C113" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="B114" s="27" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="22" t="s">
+      <c r="C114" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B114" s="22" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C114" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="B115" s="26" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="C115" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="D115" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C115" s="27" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="C116" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="C116" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="B117" s="44" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="C117" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="B117" s="39" t="s">
+      <c r="D117" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C117" s="27" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="C118" s="32" t="s">
         <v>644</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C118" s="27" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="C119" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C119" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="C120" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B120" s="1" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="C120" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="B121" s="27" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="C121" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B121" s="22" t="s">
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B122" s="27" t="s">
         <v>655</v>
       </c>
-      <c r="C121" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="C122" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B122" s="22" t="s">
+    <row r="123">
+      <c r="A123" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C122" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="B123" s="27" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="C123" s="32" t="s">
         <v>659</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="D123" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C123" s="27" t="s">
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="C124" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B124" s="1" t="s">
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B125" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="C124" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C125" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B125" s="22" t="s">
+    <row r="126">
+      <c r="A126" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="C125" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="C126" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B126" s="1" t="s">
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="C126" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="B127" s="27" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="C127" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="D127" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="C131" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="D131" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C132" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>686</v>
-      </c>
       <c r="D132" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>703</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C138" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="C139" s="32" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C139" s="27" t="s">
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="3" t="s">
+      <c r="C140" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B140" s="1" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="C140" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="B141" s="37" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="3" t="s">
+      <c r="C141" s="32" t="s">
         <v>713</v>
       </c>
-      <c r="B141" s="32" t="s">
+      <c r="D141" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C141" s="27" t="s">
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="B142" s="27" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="3" t="s">
+      <c r="C142" s="32" t="s">
         <v>717</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="D142" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C142" s="27" t="s">
+    </row>
+    <row r="143">
+      <c r="A143" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="23" t="s">
+      <c r="C143" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B143" s="1" t="s">
+    </row>
+    <row r="144">
+      <c r="A144" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="C143" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="23" t="s">
+      <c r="C144" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B144" s="1" t="s">
+    </row>
+    <row r="145">
+      <c r="A145" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C144" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="23" t="s">
+      <c r="C145" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="146">
+      <c r="A146" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="C145" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="C146" s="32" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="23" t="s">
+      <c r="D146" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C146" s="27" t="s">
+    </row>
+    <row r="147">
+      <c r="A147" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="23" t="s">
+      <c r="C147" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B147" s="1" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="C147" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="B148" s="27" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="23" t="s">
+      <c r="C148" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B148" s="22" t="s">
+    </row>
+    <row r="149">
+      <c r="A149" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="C148" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="23" t="s">
+      <c r="C149" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="C149" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="3" t="s">
+      <c r="C150" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B150" s="1" t="s">
+    </row>
+    <row r="151">
+      <c r="A151" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="C150" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="B151" s="27" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="41" t="s">
+      <c r="C151" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="D151" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C151" s="27" t="s">
+    </row>
+    <row r="152">
+      <c r="A152" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="B152" s="29" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="B152" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>747</v>
+      <c r="C152" s="32" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B154" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C154" s="27" t="s">
-        <v>747</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="7" t="s">
+      <c r="C155" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="D155" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C155" s="4" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="B156" s="3" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="3" t="s">
+      <c r="C156" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="C157" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C156" s="4" t="s">
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="7" t="s">
+      <c r="B158" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="D158" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="C159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D159" s="1" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="s">
         <v>765</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>766</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B161" s="7" t="s">
+      <c r="A161" s="5" t="s">
         <v>768</v>
       </c>
+      <c r="B161" s="3" t="s">
+        <v>769</v>
+      </c>
       <c r="C161" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>764</v>
+      <c r="A162" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>763</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>63</v>
+      <c r="A163" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>773</v>
+      <c r="A164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>775</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>775</v>
+      <c r="A165" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>777</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>777</v>
+      <c r="A166" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="8" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>97</v>
+      <c r="A168" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
-        <v>163</v>
+      <c r="A169" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
-        <v>783</v>
+      <c r="A170" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>786</v>
+      <c r="A171" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>788</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="16"/>
+      <c r="A172" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/cell_classes.xlsx
+++ b/data/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="596">
   <si>
     <t>label</t>
   </si>
@@ -38,313 +38,145 @@
     <t>described by source</t>
   </si>
   <si>
-    <t>intratumoral myeloid cell</t>
-  </si>
-  <si>
-    <t>myeloid cell</t>
-  </si>
-  <si>
-    <t>Q57814130</t>
-  </si>
-  <si>
-    <t>CCR2+ monocyte</t>
+    <t>enteric glial cell</t>
+  </si>
+  <si>
+    <t>glial cell</t>
+  </si>
+  <si>
+    <t>Q109755007</t>
+  </si>
+  <si>
+    <t>intestine</t>
+  </si>
+  <si>
+    <t>enterocyte progenitor</t>
+  </si>
+  <si>
+    <t>progenitor cell</t>
+  </si>
+  <si>
+    <t>exhausted-like CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>CD4 T cell</t>
+  </si>
+  <si>
+    <t>exhausted-like CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>CD8 T cell</t>
+  </si>
+  <si>
+    <t>IL7R-max CD4-positive, alpha-beta cytotoxic T cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>immature enterocyte</t>
+  </si>
+  <si>
+    <t>enterocyte</t>
+  </si>
+  <si>
+    <t>immature goblet cell</t>
+  </si>
+  <si>
+    <t>goblet cell</t>
+  </si>
+  <si>
+    <t>MSR1-positive macrophage</t>
+  </si>
+  <si>
+    <t>macrophage</t>
+  </si>
+  <si>
+    <t>natural killer or T cell</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>newly formed oligodendrocyte</t>
+  </si>
+  <si>
+    <t>oligodendrocyte</t>
+  </si>
+  <si>
+    <t>proliferating B cell</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>proliferating CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>proliferating CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>proliferating monocyte</t>
   </si>
   <si>
     <t>monocyte</t>
   </si>
   <si>
-    <t>intratumoral iNOS+ macrophage</t>
-  </si>
-  <si>
-    <t>macrophage</t>
-  </si>
-  <si>
-    <t>iNOS-positive macrophage</t>
-  </si>
-  <si>
-    <t>myeloid regulatory cell</t>
-  </si>
-  <si>
-    <t>Q70203713</t>
-  </si>
-  <si>
-    <t>Q98388185</t>
-  </si>
-  <si>
-    <t>Mregs</t>
-  </si>
-  <si>
-    <t>Arg1+ Trem2+ regulatory myeloid cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse Lgr5+ intestinal stem cell </t>
-  </si>
-  <si>
-    <t>Q107119322</t>
-  </si>
-  <si>
-    <t>Q92817489</t>
-  </si>
-  <si>
-    <t>enterocyte progenitor</t>
-  </si>
-  <si>
-    <t>progenitor cell</t>
-  </si>
-  <si>
-    <t>intestinal stem cell</t>
-  </si>
-  <si>
-    <t>Q48196 | Q66591218</t>
-  </si>
-  <si>
-    <t>intestine</t>
-  </si>
-  <si>
-    <t>OLFM4+ intestinal stem cell</t>
-  </si>
-  <si>
-    <t>microfold-like cell</t>
+    <t>proliferating neuron</t>
+  </si>
+  <si>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>proliferating T cell</t>
+  </si>
+  <si>
+    <t>proliferating transit amplifying cell</t>
+  </si>
+  <si>
+    <t>Q106413834</t>
+  </si>
+  <si>
+    <t>SLC17A6_SLC17A7-positive neuron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC17A6-positive neuron	</t>
+  </si>
+  <si>
+    <t>SLC17A7-positive neuron</t>
+  </si>
+  <si>
+    <t>SLC17A8-positive neuron</t>
+  </si>
+  <si>
+    <t>exhausted B cell</t>
+  </si>
+  <si>
+    <t>proliferating myeloid leukocyte</t>
+  </si>
+  <si>
+    <t>leukocyte</t>
+  </si>
+  <si>
+    <t>proliferating myeloid dendritic cell</t>
+  </si>
+  <si>
+    <t>dendritic cell</t>
+  </si>
+  <si>
+    <t>proliferating epithelial fate stem cell</t>
+  </si>
+  <si>
+    <t>stem cell</t>
+  </si>
+  <si>
+    <t>proliferating enterocyte progenitor</t>
+  </si>
+  <si>
+    <t>proliferating hematopoietic cell</t>
   </si>
   <si>
     <t>cell</t>
-  </si>
-  <si>
-    <t>Q92204349</t>
-  </si>
-  <si>
-    <t>M-like cell</t>
-  </si>
-  <si>
-    <t>inflammatory fibroblast</t>
-  </si>
-  <si>
-    <t>fibroblast</t>
-  </si>
-  <si>
-    <t>IL13RA2+ IL11+ inflammatory fibroblast</t>
-  </si>
-  <si>
-    <t>human IL13RA2+ IL11+ inflammatory fibroblast</t>
-  </si>
-  <si>
-    <t>subepithelial telocyte</t>
-  </si>
-  <si>
-    <t>Q7697784</t>
-  </si>
-  <si>
-    <t>WNT2B+ intestinal fibroblast</t>
-  </si>
-  <si>
-    <t>RSPO3+ intestinal fibroblast</t>
-  </si>
-  <si>
-    <t>immature goblet cell</t>
-  </si>
-  <si>
-    <t>Q813622</t>
-  </si>
-  <si>
-    <t>caudal ganglionic eminence-derived interneuron</t>
-  </si>
-  <si>
-    <t>interneuron</t>
-  </si>
-  <si>
-    <t>Q92614159</t>
-  </si>
-  <si>
-    <t>(CGE)-derived interneuron</t>
-  </si>
-  <si>
-    <t>VIP+ basket cell</t>
-  </si>
-  <si>
-    <t>Q109242323</t>
-  </si>
-  <si>
-    <t>indirect spiny projection neuron</t>
-  </si>
-  <si>
-    <t>Q66563091</t>
-  </si>
-  <si>
-    <t>iSPN</t>
-  </si>
-  <si>
-    <t>direct spiny projection neuron</t>
-  </si>
-  <si>
-    <t>dSPN</t>
-  </si>
-  <si>
-    <t>eccentric spiny projection neuron</t>
-  </si>
-  <si>
-    <t>eSPN</t>
-  </si>
-  <si>
-    <t>rhomboid nucleus of BNST neuron</t>
-  </si>
-  <si>
-    <t>Q109745736</t>
-  </si>
-  <si>
-    <t>BNST principal nucleus neuron</t>
-  </si>
-  <si>
-    <t>neuron</t>
-  </si>
-  <si>
-    <t>MGE-derived interneuron</t>
-  </si>
-  <si>
-    <t>superficial excitatory neuron</t>
-  </si>
-  <si>
-    <t>deep-layer excitatory neuron</t>
-  </si>
-  <si>
-    <t>CCR7-positive myeloid dendritic cell</t>
-  </si>
-  <si>
-    <t>dendritic cell</t>
-  </si>
-  <si>
-    <t>Q109755007</t>
-  </si>
-  <si>
-    <t>colorectal cancer cell</t>
-  </si>
-  <si>
-    <t>cancer cell</t>
-  </si>
-  <si>
-    <t>CMS1 colorectal cancer cell</t>
-  </si>
-  <si>
-    <t>CMS2 colorectal cancer cell</t>
-  </si>
-  <si>
-    <t>CMS3 colorectal cancer cell</t>
-  </si>
-  <si>
-    <t>CMS4 colorectal cancer cell</t>
-  </si>
-  <si>
-    <t>CXCL9-positive macrophage</t>
-  </si>
-  <si>
-    <t>enteric glial cell</t>
-  </si>
-  <si>
-    <t>glial cell</t>
-  </si>
-  <si>
-    <t>exhausted-like CD4-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>CD4 T cell</t>
-  </si>
-  <si>
-    <t>exhausted-like CD8-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>CD8 T cell</t>
-  </si>
-  <si>
-    <t>IL7R-max CD4-positive, alpha-beta cytotoxic T cell</t>
-  </si>
-  <si>
-    <t>T cell</t>
-  </si>
-  <si>
-    <t>immature enterocyte</t>
-  </si>
-  <si>
-    <t>enterocyte</t>
-  </si>
-  <si>
-    <t>goblet cell</t>
-  </si>
-  <si>
-    <t>MSR1-positive macrophage</t>
-  </si>
-  <si>
-    <t>natural killer or T cell</t>
-  </si>
-  <si>
-    <t>immune cell</t>
-  </si>
-  <si>
-    <t>newly formed oligodendrocyte</t>
-  </si>
-  <si>
-    <t>oligodendrocyte</t>
-  </si>
-  <si>
-    <t>proliferating B cell</t>
-  </si>
-  <si>
-    <t>B cell</t>
-  </si>
-  <si>
-    <t>proliferating CD4-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>proliferating CD8-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>proliferating monocyte</t>
-  </si>
-  <si>
-    <t>proliferating neuron</t>
-  </si>
-  <si>
-    <t>proliferating T cell</t>
-  </si>
-  <si>
-    <t>proliferating transit amplifying cell</t>
-  </si>
-  <si>
-    <t>Q106413834</t>
-  </si>
-  <si>
-    <t>SLC17A6_SLC17A7-positive neuron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC17A6-positive neuron	</t>
-  </si>
-  <si>
-    <t>SLC17A7-positive neuron</t>
-  </si>
-  <si>
-    <t>SLC17A8-positive neuron</t>
-  </si>
-  <si>
-    <t>exhausted B cell</t>
-  </si>
-  <si>
-    <t>proliferating myeloid leukocyte</t>
-  </si>
-  <si>
-    <t>leukocyte</t>
-  </si>
-  <si>
-    <t>proliferating myeloid dendritic cell</t>
-  </si>
-  <si>
-    <t>proliferating epithelial fate stem cell</t>
-  </si>
-  <si>
-    <t>stem cell</t>
-  </si>
-  <si>
-    <t>proliferating enterocyte progenitor</t>
-  </si>
-  <si>
-    <t>proliferating hematopoietic cell</t>
   </si>
   <si>
     <t>secretory progenitor</t>
@@ -1976,12 +1808,21 @@
     <t>Hmgcs2</t>
   </si>
   <si>
+    <t>Q92817489</t>
+  </si>
+  <si>
     <t>"in the mammalian small intestine, the
 expression of Hmgcs2 (....) distinguishes self-renewing Lgr5+ stem cells (ISCs) from
 differentiated cell types"</t>
   </si>
   <si>
+    <t>human IL13RA2+ IL11+ inflammatory fibroblast</t>
+  </si>
+  <si>
     <t>IL13RA2</t>
+  </si>
+  <si>
+    <t>Q92204349</t>
   </si>
   <si>
     <t>"IL13RA2+ IL11+ inflammatory fibroblasts, which we associate with
@@ -1992,7 +1833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2007,14 +1848,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF505050"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF505050"/>
-      <name val="Docs-Helvetica"/>
+      <sz val="9.0"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2022,28 +1858,14 @@
       <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <color rgb="FF72777D"/>
-      <name val="&quot;Linux Libertine&quot;"/>
+      <sz val="12.0"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF24292F"/>
       <name val="-apple-system"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF24292F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF24292F"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF72777D"/>
@@ -2110,6 +1932,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2174,7 +2001,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2189,19 +2016,28 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -2209,23 +2045,17 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2233,16 +2063,16 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2252,52 +2082,40 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2580,7 +2398,9 @@
         <v>10</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2603,10 +2423,10 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
@@ -2634,18 +2454,16 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
+      <c r="A4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2668,18 +2486,16 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2702,14 +2518,14 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2734,14 +2550,14 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2766,14 +2582,14 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2798,19 +2614,17 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>27</v>
+      <c r="A9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2833,18 +2647,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2866,21 +2678,17 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
+      <c r="A11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2902,14 +2710,14 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2934,14 +2742,14 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2966,14 +2774,14 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2999,13 +2807,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3030,14 +2838,14 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>35</v>
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3062,14 +2870,14 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -3094,14 +2902,14 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3126,18 +2934,16 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>45</v>
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3160,14 +2966,14 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3192,18 +2998,16 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>51</v>
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3226,18 +3030,16 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>51</v>
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3261,17 +3063,15 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3294,17 +3094,17 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="A24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3326,19 +3126,17 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>60</v>
+      <c r="A25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3360,14 +3158,14 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>60</v>
+      <c r="A26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3392,14 +3190,14 @@
       <c r="X26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>60</v>
+      <c r="A27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3424,14 +3222,14 @@
       <c r="X27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>60</v>
+      <c r="A28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3456,14 +3254,14 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>65</v>
+      <c r="A29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3488,16 +3286,18 @@
       <c r="X29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>68</v>
+      <c r="A30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3520,16 +3320,18 @@
       <c r="X30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>67</v>
+      <c r="A31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3552,16 +3354,18 @@
       <c r="X31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>67</v>
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3584,14 +3388,14 @@
       <c r="X32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
-        <v>71</v>
+      <c r="A33" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3616,16 +3420,18 @@
       <c r="X33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3648,16 +3454,18 @@
       <c r="X34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>14</v>
+      <c r="A35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3680,19 +3488,17 @@
       <c r="X35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>75</v>
+      <c r="A36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3714,16 +3520,18 @@
       <c r="X36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>25</v>
+      <c r="A37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3746,14 +3554,14 @@
       <c r="X37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>77</v>
+      <c r="A38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3778,14 +3586,14 @@
       <c r="X38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>79</v>
+      <c r="A39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3810,14 +3618,14 @@
       <c r="X39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>81</v>
+      <c r="A40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3841,17 +3649,17 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41">
-      <c r="A41" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>83</v>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3874,17 +3682,21 @@
       <c r="X41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>84</v>
+      <c r="A42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3906,16 +3718,18 @@
       <c r="X42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3938,16 +3752,18 @@
       <c r="X43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3969,176 +3785,10 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45">
-      <c r="A45" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-    </row>
     <row r="50">
-      <c r="A50" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
@@ -4162,15 +3812,9 @@
       <c r="X50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="2"/>
@@ -4194,15 +3838,9 @@
       <c r="X51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
@@ -4226,15 +3864,9 @@
       <c r="X52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
@@ -4258,15 +3890,9 @@
       <c r="X53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
@@ -4290,15 +3916,9 @@
       <c r="X54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
@@ -4322,15 +3942,9 @@
       <c r="X55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
@@ -4354,15 +3968,9 @@
       <c r="X56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="2"/>
@@ -4386,15 +3994,9 @@
       <c r="X57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
@@ -4418,15 +4020,9 @@
       <c r="X58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="2"/>
@@ -4450,15 +4046,9 @@
       <c r="X59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
@@ -4482,15 +4072,9 @@
       <c r="X60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
@@ -4514,15 +4098,9 @@
       <c r="X61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
@@ -4546,15 +4124,9 @@
       <c r="X62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
@@ -4578,18 +4150,10 @@
       <c r="X63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4612,18 +4176,10 @@
       <c r="X64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -4646,18 +4202,10 @@
       <c r="X65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -4680,15 +4228,9 @@
       <c r="X66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
@@ -4712,18 +4254,10 @@
       <c r="X67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4746,18 +4280,10 @@
       <c r="X68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4780,15 +4306,9 @@
       <c r="X69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
@@ -4812,18 +4332,10 @@
       <c r="X70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4846,15 +4358,9 @@
       <c r="X71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
@@ -4878,15 +4384,9 @@
       <c r="X72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="2"/>
@@ -4910,15 +4410,9 @@
       <c r="X73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
@@ -4941,17 +4435,11 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="8"/>
+    <row r="75">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4974,21 +4462,11 @@
       <c r="X75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -5010,18 +4488,10 @@
       <c r="X76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -5044,18 +4514,10 @@
       <c r="X77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5076,6 +4538,136 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -10280,12 +9872,12 @@
     <row r="284">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
+      <c r="C284" s="15"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
+      <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
@@ -10302,890 +9894,6 @@
       <c r="V284" s="4"/>
       <c r="W284" s="4"/>
       <c r="X284" s="4"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="4"/>
-      <c r="J285" s="4"/>
-      <c r="K285" s="4"/>
-      <c r="L285" s="4"/>
-      <c r="M285" s="4"/>
-      <c r="N285" s="4"/>
-      <c r="O285" s="4"/>
-      <c r="P285" s="4"/>
-      <c r="Q285" s="4"/>
-      <c r="R285" s="4"/>
-      <c r="S285" s="4"/>
-      <c r="T285" s="4"/>
-      <c r="U285" s="4"/>
-      <c r="V285" s="4"/>
-      <c r="W285" s="4"/>
-      <c r="X285" s="4"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="4"/>
-      <c r="J286" s="4"/>
-      <c r="K286" s="4"/>
-      <c r="L286" s="4"/>
-      <c r="M286" s="4"/>
-      <c r="N286" s="4"/>
-      <c r="O286" s="4"/>
-      <c r="P286" s="4"/>
-      <c r="Q286" s="4"/>
-      <c r="R286" s="4"/>
-      <c r="S286" s="4"/>
-      <c r="T286" s="4"/>
-      <c r="U286" s="4"/>
-      <c r="V286" s="4"/>
-      <c r="W286" s="4"/>
-      <c r="X286" s="4"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="4"/>
-      <c r="J287" s="4"/>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4"/>
-      <c r="N287" s="4"/>
-      <c r="O287" s="4"/>
-      <c r="P287" s="4"/>
-      <c r="Q287" s="4"/>
-      <c r="R287" s="4"/>
-      <c r="S287" s="4"/>
-      <c r="T287" s="4"/>
-      <c r="U287" s="4"/>
-      <c r="V287" s="4"/>
-      <c r="W287" s="4"/>
-      <c r="X287" s="4"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="4"/>
-      <c r="J288" s="4"/>
-      <c r="K288" s="4"/>
-      <c r="L288" s="4"/>
-      <c r="M288" s="4"/>
-      <c r="N288" s="4"/>
-      <c r="O288" s="4"/>
-      <c r="P288" s="4"/>
-      <c r="Q288" s="4"/>
-      <c r="R288" s="4"/>
-      <c r="S288" s="4"/>
-      <c r="T288" s="4"/>
-      <c r="U288" s="4"/>
-      <c r="V288" s="4"/>
-      <c r="W288" s="4"/>
-      <c r="X288" s="4"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="4"/>
-      <c r="J289" s="4"/>
-      <c r="K289" s="4"/>
-      <c r="L289" s="4"/>
-      <c r="M289" s="4"/>
-      <c r="N289" s="4"/>
-      <c r="O289" s="4"/>
-      <c r="P289" s="4"/>
-      <c r="Q289" s="4"/>
-      <c r="R289" s="4"/>
-      <c r="S289" s="4"/>
-      <c r="T289" s="4"/>
-      <c r="U289" s="4"/>
-      <c r="V289" s="4"/>
-      <c r="W289" s="4"/>
-      <c r="X289" s="4"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="4"/>
-      <c r="J290" s="4"/>
-      <c r="K290" s="4"/>
-      <c r="L290" s="4"/>
-      <c r="M290" s="4"/>
-      <c r="N290" s="4"/>
-      <c r="O290" s="4"/>
-      <c r="P290" s="4"/>
-      <c r="Q290" s="4"/>
-      <c r="R290" s="4"/>
-      <c r="S290" s="4"/>
-      <c r="T290" s="4"/>
-      <c r="U290" s="4"/>
-      <c r="V290" s="4"/>
-      <c r="W290" s="4"/>
-      <c r="X290" s="4"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="4"/>
-      <c r="J291" s="4"/>
-      <c r="K291" s="4"/>
-      <c r="L291" s="4"/>
-      <c r="M291" s="4"/>
-      <c r="N291" s="4"/>
-      <c r="O291" s="4"/>
-      <c r="P291" s="4"/>
-      <c r="Q291" s="4"/>
-      <c r="R291" s="4"/>
-      <c r="S291" s="4"/>
-      <c r="T291" s="4"/>
-      <c r="U291" s="4"/>
-      <c r="V291" s="4"/>
-      <c r="W291" s="4"/>
-      <c r="X291" s="4"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="4"/>
-      <c r="J292" s="4"/>
-      <c r="K292" s="4"/>
-      <c r="L292" s="4"/>
-      <c r="M292" s="4"/>
-      <c r="N292" s="4"/>
-      <c r="O292" s="4"/>
-      <c r="P292" s="4"/>
-      <c r="Q292" s="4"/>
-      <c r="R292" s="4"/>
-      <c r="S292" s="4"/>
-      <c r="T292" s="4"/>
-      <c r="U292" s="4"/>
-      <c r="V292" s="4"/>
-      <c r="W292" s="4"/>
-      <c r="X292" s="4"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="4"/>
-      <c r="J293" s="4"/>
-      <c r="K293" s="4"/>
-      <c r="L293" s="4"/>
-      <c r="M293" s="4"/>
-      <c r="N293" s="4"/>
-      <c r="O293" s="4"/>
-      <c r="P293" s="4"/>
-      <c r="Q293" s="4"/>
-      <c r="R293" s="4"/>
-      <c r="S293" s="4"/>
-      <c r="T293" s="4"/>
-      <c r="U293" s="4"/>
-      <c r="V293" s="4"/>
-      <c r="W293" s="4"/>
-      <c r="X293" s="4"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="4"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="4"/>
-      <c r="J294" s="4"/>
-      <c r="K294" s="4"/>
-      <c r="L294" s="4"/>
-      <c r="M294" s="4"/>
-      <c r="N294" s="4"/>
-      <c r="O294" s="4"/>
-      <c r="P294" s="4"/>
-      <c r="Q294" s="4"/>
-      <c r="R294" s="4"/>
-      <c r="S294" s="4"/>
-      <c r="T294" s="4"/>
-      <c r="U294" s="4"/>
-      <c r="V294" s="4"/>
-      <c r="W294" s="4"/>
-      <c r="X294" s="4"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="4"/>
-      <c r="J295" s="4"/>
-      <c r="K295" s="4"/>
-      <c r="L295" s="4"/>
-      <c r="M295" s="4"/>
-      <c r="N295" s="4"/>
-      <c r="O295" s="4"/>
-      <c r="P295" s="4"/>
-      <c r="Q295" s="4"/>
-      <c r="R295" s="4"/>
-      <c r="S295" s="4"/>
-      <c r="T295" s="4"/>
-      <c r="U295" s="4"/>
-      <c r="V295" s="4"/>
-      <c r="W295" s="4"/>
-      <c r="X295" s="4"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="4"/>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="4"/>
-      <c r="J296" s="4"/>
-      <c r="K296" s="4"/>
-      <c r="L296" s="4"/>
-      <c r="M296" s="4"/>
-      <c r="N296" s="4"/>
-      <c r="O296" s="4"/>
-      <c r="P296" s="4"/>
-      <c r="Q296" s="4"/>
-      <c r="R296" s="4"/>
-      <c r="S296" s="4"/>
-      <c r="T296" s="4"/>
-      <c r="U296" s="4"/>
-      <c r="V296" s="4"/>
-      <c r="W296" s="4"/>
-      <c r="X296" s="4"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="4"/>
-      <c r="J297" s="4"/>
-      <c r="K297" s="4"/>
-      <c r="L297" s="4"/>
-      <c r="M297" s="4"/>
-      <c r="N297" s="4"/>
-      <c r="O297" s="4"/>
-      <c r="P297" s="4"/>
-      <c r="Q297" s="4"/>
-      <c r="R297" s="4"/>
-      <c r="S297" s="4"/>
-      <c r="T297" s="4"/>
-      <c r="U297" s="4"/>
-      <c r="V297" s="4"/>
-      <c r="W297" s="4"/>
-      <c r="X297" s="4"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="4"/>
-      <c r="J298" s="4"/>
-      <c r="K298" s="4"/>
-      <c r="L298" s="4"/>
-      <c r="M298" s="4"/>
-      <c r="N298" s="4"/>
-      <c r="O298" s="4"/>
-      <c r="P298" s="4"/>
-      <c r="Q298" s="4"/>
-      <c r="R298" s="4"/>
-      <c r="S298" s="4"/>
-      <c r="T298" s="4"/>
-      <c r="U298" s="4"/>
-      <c r="V298" s="4"/>
-      <c r="W298" s="4"/>
-      <c r="X298" s="4"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="4"/>
-      <c r="J299" s="4"/>
-      <c r="K299" s="4"/>
-      <c r="L299" s="4"/>
-      <c r="M299" s="4"/>
-      <c r="N299" s="4"/>
-      <c r="O299" s="4"/>
-      <c r="P299" s="4"/>
-      <c r="Q299" s="4"/>
-      <c r="R299" s="4"/>
-      <c r="S299" s="4"/>
-      <c r="T299" s="4"/>
-      <c r="U299" s="4"/>
-      <c r="V299" s="4"/>
-      <c r="W299" s="4"/>
-      <c r="X299" s="4"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="4"/>
-      <c r="J300" s="4"/>
-      <c r="K300" s="4"/>
-      <c r="L300" s="4"/>
-      <c r="M300" s="4"/>
-      <c r="N300" s="4"/>
-      <c r="O300" s="4"/>
-      <c r="P300" s="4"/>
-      <c r="Q300" s="4"/>
-      <c r="R300" s="4"/>
-      <c r="S300" s="4"/>
-      <c r="T300" s="4"/>
-      <c r="U300" s="4"/>
-      <c r="V300" s="4"/>
-      <c r="W300" s="4"/>
-      <c r="X300" s="4"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="4"/>
-      <c r="J301" s="4"/>
-      <c r="K301" s="4"/>
-      <c r="L301" s="4"/>
-      <c r="M301" s="4"/>
-      <c r="N301" s="4"/>
-      <c r="O301" s="4"/>
-      <c r="P301" s="4"/>
-      <c r="Q301" s="4"/>
-      <c r="R301" s="4"/>
-      <c r="S301" s="4"/>
-      <c r="T301" s="4"/>
-      <c r="U301" s="4"/>
-      <c r="V301" s="4"/>
-      <c r="W301" s="4"/>
-      <c r="X301" s="4"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="4"/>
-      <c r="J302" s="4"/>
-      <c r="K302" s="4"/>
-      <c r="L302" s="4"/>
-      <c r="M302" s="4"/>
-      <c r="N302" s="4"/>
-      <c r="O302" s="4"/>
-      <c r="P302" s="4"/>
-      <c r="Q302" s="4"/>
-      <c r="R302" s="4"/>
-      <c r="S302" s="4"/>
-      <c r="T302" s="4"/>
-      <c r="U302" s="4"/>
-      <c r="V302" s="4"/>
-      <c r="W302" s="4"/>
-      <c r="X302" s="4"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="4"/>
-      <c r="J303" s="4"/>
-      <c r="K303" s="4"/>
-      <c r="L303" s="4"/>
-      <c r="M303" s="4"/>
-      <c r="N303" s="4"/>
-      <c r="O303" s="4"/>
-      <c r="P303" s="4"/>
-      <c r="Q303" s="4"/>
-      <c r="R303" s="4"/>
-      <c r="S303" s="4"/>
-      <c r="T303" s="4"/>
-      <c r="U303" s="4"/>
-      <c r="V303" s="4"/>
-      <c r="W303" s="4"/>
-      <c r="X303" s="4"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="4"/>
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2"/>
-      <c r="I304" s="4"/>
-      <c r="J304" s="4"/>
-      <c r="K304" s="4"/>
-      <c r="L304" s="4"/>
-      <c r="M304" s="4"/>
-      <c r="N304" s="4"/>
-      <c r="O304" s="4"/>
-      <c r="P304" s="4"/>
-      <c r="Q304" s="4"/>
-      <c r="R304" s="4"/>
-      <c r="S304" s="4"/>
-      <c r="T304" s="4"/>
-      <c r="U304" s="4"/>
-      <c r="V304" s="4"/>
-      <c r="W304" s="4"/>
-      <c r="X304" s="4"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="4"/>
-      <c r="J305" s="4"/>
-      <c r="K305" s="4"/>
-      <c r="L305" s="4"/>
-      <c r="M305" s="4"/>
-      <c r="N305" s="4"/>
-      <c r="O305" s="4"/>
-      <c r="P305" s="4"/>
-      <c r="Q305" s="4"/>
-      <c r="R305" s="4"/>
-      <c r="S305" s="4"/>
-      <c r="T305" s="4"/>
-      <c r="U305" s="4"/>
-      <c r="V305" s="4"/>
-      <c r="W305" s="4"/>
-      <c r="X305" s="4"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="4"/>
-      <c r="J306" s="4"/>
-      <c r="K306" s="4"/>
-      <c r="L306" s="4"/>
-      <c r="M306" s="4"/>
-      <c r="N306" s="4"/>
-      <c r="O306" s="4"/>
-      <c r="P306" s="4"/>
-      <c r="Q306" s="4"/>
-      <c r="R306" s="4"/>
-      <c r="S306" s="4"/>
-      <c r="T306" s="4"/>
-      <c r="U306" s="4"/>
-      <c r="V306" s="4"/>
-      <c r="W306" s="4"/>
-      <c r="X306" s="4"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="4"/>
-      <c r="J307" s="4"/>
-      <c r="K307" s="4"/>
-      <c r="L307" s="4"/>
-      <c r="M307" s="4"/>
-      <c r="N307" s="4"/>
-      <c r="O307" s="4"/>
-      <c r="P307" s="4"/>
-      <c r="Q307" s="4"/>
-      <c r="R307" s="4"/>
-      <c r="S307" s="4"/>
-      <c r="T307" s="4"/>
-      <c r="U307" s="4"/>
-      <c r="V307" s="4"/>
-      <c r="W307" s="4"/>
-      <c r="X307" s="4"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="2"/>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
-      <c r="I308" s="4"/>
-      <c r="J308" s="4"/>
-      <c r="K308" s="4"/>
-      <c r="L308" s="4"/>
-      <c r="M308" s="4"/>
-      <c r="N308" s="4"/>
-      <c r="O308" s="4"/>
-      <c r="P308" s="4"/>
-      <c r="Q308" s="4"/>
-      <c r="R308" s="4"/>
-      <c r="S308" s="4"/>
-      <c r="T308" s="4"/>
-      <c r="U308" s="4"/>
-      <c r="V308" s="4"/>
-      <c r="W308" s="4"/>
-      <c r="X308" s="4"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="4"/>
-      <c r="J309" s="4"/>
-      <c r="K309" s="4"/>
-      <c r="L309" s="4"/>
-      <c r="M309" s="4"/>
-      <c r="N309" s="4"/>
-      <c r="O309" s="4"/>
-      <c r="P309" s="4"/>
-      <c r="Q309" s="4"/>
-      <c r="R309" s="4"/>
-      <c r="S309" s="4"/>
-      <c r="T309" s="4"/>
-      <c r="U309" s="4"/>
-      <c r="V309" s="4"/>
-      <c r="W309" s="4"/>
-      <c r="X309" s="4"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="4"/>
-      <c r="J310" s="4"/>
-      <c r="K310" s="4"/>
-      <c r="L310" s="4"/>
-      <c r="M310" s="4"/>
-      <c r="N310" s="4"/>
-      <c r="O310" s="4"/>
-      <c r="P310" s="4"/>
-      <c r="Q310" s="4"/>
-      <c r="R310" s="4"/>
-      <c r="S310" s="4"/>
-      <c r="T310" s="4"/>
-      <c r="U310" s="4"/>
-      <c r="V310" s="4"/>
-      <c r="W310" s="4"/>
-      <c r="X310" s="4"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="4"/>
-      <c r="J311" s="4"/>
-      <c r="K311" s="4"/>
-      <c r="L311" s="4"/>
-      <c r="M311" s="4"/>
-      <c r="N311" s="4"/>
-      <c r="O311" s="4"/>
-      <c r="P311" s="4"/>
-      <c r="Q311" s="4"/>
-      <c r="R311" s="4"/>
-      <c r="S311" s="4"/>
-      <c r="T311" s="4"/>
-      <c r="U311" s="4"/>
-      <c r="V311" s="4"/>
-      <c r="W311" s="4"/>
-      <c r="X311" s="4"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
-      <c r="H312" s="2"/>
-      <c r="I312" s="4"/>
-      <c r="J312" s="4"/>
-      <c r="K312" s="4"/>
-      <c r="L312" s="4"/>
-      <c r="M312" s="4"/>
-      <c r="N312" s="4"/>
-      <c r="O312" s="4"/>
-      <c r="P312" s="4"/>
-      <c r="Q312" s="4"/>
-      <c r="R312" s="4"/>
-      <c r="S312" s="4"/>
-      <c r="T312" s="4"/>
-      <c r="U312" s="4"/>
-      <c r="V312" s="4"/>
-      <c r="W312" s="4"/>
-      <c r="X312" s="4"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="4"/>
-      <c r="J313" s="4"/>
-      <c r="K313" s="4"/>
-      <c r="L313" s="4"/>
-      <c r="M313" s="4"/>
-      <c r="N313" s="4"/>
-      <c r="O313" s="4"/>
-      <c r="P313" s="4"/>
-      <c r="Q313" s="4"/>
-      <c r="R313" s="4"/>
-      <c r="S313" s="4"/>
-      <c r="T313" s="4"/>
-      <c r="U313" s="4"/>
-      <c r="V313" s="4"/>
-      <c r="W313" s="4"/>
-      <c r="X313" s="4"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="2"/>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="4"/>
-      <c r="J314" s="4"/>
-      <c r="K314" s="4"/>
-      <c r="L314" s="4"/>
-      <c r="M314" s="4"/>
-      <c r="N314" s="4"/>
-      <c r="O314" s="4"/>
-      <c r="P314" s="4"/>
-      <c r="Q314" s="4"/>
-      <c r="R314" s="4"/>
-      <c r="S314" s="4"/>
-      <c r="T314" s="4"/>
-      <c r="U314" s="4"/>
-      <c r="V314" s="4"/>
-      <c r="W314" s="4"/>
-      <c r="X314" s="4"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="2"/>
-      <c r="G315" s="2"/>
-      <c r="H315" s="2"/>
-      <c r="I315" s="4"/>
-      <c r="J315" s="4"/>
-      <c r="K315" s="4"/>
-      <c r="L315" s="4"/>
-      <c r="M315" s="4"/>
-      <c r="N315" s="4"/>
-      <c r="O315" s="4"/>
-      <c r="P315" s="4"/>
-      <c r="Q315" s="4"/>
-      <c r="R315" s="4"/>
-      <c r="S315" s="4"/>
-      <c r="T315" s="4"/>
-      <c r="U315" s="4"/>
-      <c r="V315" s="4"/>
-      <c r="W315" s="4"/>
-      <c r="X315" s="4"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="4"/>
-      <c r="J316" s="4"/>
-      <c r="K316" s="4"/>
-      <c r="L316" s="4"/>
-      <c r="M316" s="4"/>
-      <c r="N316" s="4"/>
-      <c r="O316" s="4"/>
-      <c r="P316" s="4"/>
-      <c r="Q316" s="4"/>
-      <c r="R316" s="4"/>
-      <c r="S316" s="4"/>
-      <c r="T316" s="4"/>
-      <c r="U316" s="4"/>
-      <c r="V316" s="4"/>
-      <c r="W316" s="4"/>
-      <c r="X316" s="4"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="4"/>
-      <c r="J317" s="4"/>
-      <c r="K317" s="4"/>
-      <c r="L317" s="4"/>
-      <c r="M317" s="4"/>
-      <c r="N317" s="4"/>
-      <c r="O317" s="4"/>
-      <c r="P317" s="4"/>
-      <c r="Q317" s="4"/>
-      <c r="R317" s="4"/>
-      <c r="S317" s="4"/>
-      <c r="T317" s="4"/>
-      <c r="U317" s="4"/>
-      <c r="V317" s="4"/>
-      <c r="W317" s="4"/>
-      <c r="X317" s="4"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
-      <c r="I318" s="4"/>
-      <c r="J318" s="4"/>
-      <c r="K318" s="4"/>
-      <c r="L318" s="4"/>
-      <c r="M318" s="4"/>
-      <c r="N318" s="4"/>
-      <c r="O318" s="4"/>
-      <c r="P318" s="4"/>
-      <c r="Q318" s="4"/>
-      <c r="R318" s="4"/>
-      <c r="S318" s="4"/>
-      <c r="T318" s="4"/>
-      <c r="U318" s="4"/>
-      <c r="V318" s="4"/>
-      <c r="W318" s="4"/>
-      <c r="X318" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11207,2279 +9915,2279 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>148</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>152</v>
+        <v>95</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>155</v>
+        <v>95</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>159</v>
+        <v>102</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>159</v>
+        <v>102</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>159</v>
+        <v>107</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>159</v>
+        <v>110</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>169</v>
+      <c r="A10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>175</v>
+        <v>116</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>178</v>
+      <c r="A13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>184</v>
+        <v>127</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>194</v>
+      <c r="A18" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>201</v>
+      <c r="A20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>205</v>
+        <v>148</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>208</v>
+        <v>151</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>211</v>
+        <v>154</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>215</v>
+        <v>158</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>215</v>
+        <v>161</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>215</v>
+        <v>166</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>215</v>
+        <v>170</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>230</v>
+        <v>172</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
-        <v>232</v>
+      <c r="A30" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>230</v>
+        <v>177</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>230</v>
+      <c r="A31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>230</v>
+        <v>182</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>230</v>
+        <v>172</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="31" t="s">
-        <v>241</v>
+      <c r="A34" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>243</v>
+        <v>186</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="s">
-        <v>241</v>
+      <c r="A35" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>243</v>
+        <v>189</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>249</v>
+        <v>191</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="23" t="s">
-        <v>251</v>
+      <c r="A37" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>253</v>
+        <v>196</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="23" t="s">
-        <v>255</v>
+      <c r="A38" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>253</v>
+        <v>200</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>253</v>
+      <c r="A39" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>263</v>
+      <c r="A40" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>263</v>
+        <v>210</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>263</v>
+        <v>212</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>273</v>
+        <v>215</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>273</v>
+        <v>219</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>273</v>
+      <c r="A45" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>273</v>
+      <c r="A46" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>285</v>
+        <v>228</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>285</v>
+        <v>227</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>290</v>
+        <v>232</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>290</v>
+        <v>236</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>290</v>
+        <v>239</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>290</v>
+        <v>243</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>290</v>
+      <c r="A53" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>306</v>
+      <c r="A54" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>308</v>
+        <v>251</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>310</v>
+        <v>253</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>312</v>
+        <v>255</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>315</v>
+        <v>258</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>313</v>
+        <v>253</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>319</v>
+        <v>239</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>322</v>
+      <c r="A60" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>325</v>
+        <v>268</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="34" t="s">
-        <v>329</v>
+      <c r="A63" s="30" t="s">
+        <v>273</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>332</v>
+        <v>274</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>332</v>
+        <v>278</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>339</v>
+      <c r="A66" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>341</v>
+      <c r="A67" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>339</v>
+        <v>286</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>346</v>
+      <c r="A68" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="34" t="s">
-        <v>347</v>
+      <c r="A69" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>349</v>
+        <v>292</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="34" t="s">
-        <v>351</v>
+      <c r="A70" s="30" t="s">
+        <v>295</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>356</v>
+      <c r="A71" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>300</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>358</v>
+      <c r="A72" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>360</v>
+        <v>303</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>304</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>364</v>
+        <v>306</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>367</v>
+        <v>310</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>311</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>367</v>
+        <v>314</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>311</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>367</v>
+        <v>316</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>311</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>377</v>
+        <v>319</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>321</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>381</v>
+        <v>323</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>381</v>
+        <v>323</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>387</v>
+      <c r="A80" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>385</v>
+      <c r="A81" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>387</v>
+        <v>333</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>393</v>
+      <c r="A82" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>396</v>
+      <c r="A83" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>396</v>
+        <v>343</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>406</v>
+      <c r="A86" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>410</v>
+        <v>352</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>354</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B88" s="36" t="s">
-        <v>413</v>
+      <c r="A88" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>357</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>415</v>
+        <v>358</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>410</v>
+      <c r="A89" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>354</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>421</v>
+      <c r="A90" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>365</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>425</v>
+      <c r="A91" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>429</v>
+      <c r="A92" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>429</v>
+      <c r="A93" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>429</v>
+      <c r="A94" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C112" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="D112" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D95" s="1" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="8" t="s">
+      <c r="B113" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C113" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C96" s="28" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B114" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C114" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D97" s="1" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="s">
+      <c r="B115" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="C115" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C98" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="D98" s="1" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="23" t="s">
+      <c r="C116" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B99" s="23" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C99" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="B117" s="19" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="s">
+      <c r="C117" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="D117" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C100" s="28" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="8" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B118" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C101" s="28" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="23" t="s">
+      <c r="C118" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C119" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D102" s="1" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="6" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="8" t="s">
+      <c r="B120" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C120" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C103" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="D103" s="1" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="39" t="s">
+      <c r="B121" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C121" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="D121" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B111" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>521</v>
+        <v>468</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>465</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>521</v>
+        <v>470</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>465</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>521</v>
+        <v>473</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>465</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>534</v>
+        <v>476</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>534</v>
+        <v>480</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>534</v>
+        <v>483</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>534</v>
+        <v>485</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>534</v>
+        <v>488</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>534</v>
+        <v>492</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>534</v>
+        <v>494</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C132" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C143" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="8" t="s">
-        <v>590</v>
-      </c>
       <c r="B144" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>579</v>
+        <v>535</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>523</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="42" t="s">
-        <v>593</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>595</v>
+      <c r="A145" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>539</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="42" t="s">
-        <v>597</v>
-      </c>
-      <c r="B146" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>595</v>
+      <c r="A146" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="C148" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B164" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="166">
